--- a/bookdown/tables/abbreviations.xlsx
+++ b/bookdown/tables/abbreviations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\OneDrive - University College London\SCUA\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangzeqiang/Github/CASA0012-Dissertation/bookdown/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FABBC144-B1AF-4C66-8BAE-906D6C490CE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A5FC0-3275-2E41-B781-E6D58A77B84B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7485" xr2:uid="{2919A5B8-BF7C-4943-B2AE-9E8EB0A96388}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19080" xr2:uid="{2919A5B8-BF7C-4943-B2AE-9E8EB0A96388}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Term</t>
   </si>
@@ -33,22 +33,28 @@
     <t>Abbreviation</t>
   </si>
   <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>DSM</t>
-  </si>
-  <si>
-    <t>DTM</t>
-  </si>
-  <si>
-    <t>Digital Elevation Model</t>
-  </si>
-  <si>
-    <t>Digital Surface Model</t>
-  </si>
-  <si>
-    <t>Digital Terrain Model</t>
+    <t>TTWA</t>
+  </si>
+  <si>
+    <t>Travel to Work Area</t>
+  </si>
+  <si>
+    <t>HHI</t>
+  </si>
+  <si>
+    <t>Herfindahl-Hirschman Index</t>
+  </si>
+  <si>
+    <t>LISA</t>
+  </si>
+  <si>
+    <t>Local Indicators of Spatial Association</t>
+  </si>
+  <si>
+    <t>OLS</t>
+  </si>
+  <si>
+    <t>Ordinary Least Squares</t>
   </si>
 </sst>
 </file>
@@ -400,19 +406,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0918B5B-C1DF-4991-A3CC-9E87313077B4}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,28 +426,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
